--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>9.163165666666666</v>
+        <v>0.7170026666666667</v>
       </c>
       <c r="H2">
-        <v>27.489497</v>
+        <v>2.151008</v>
       </c>
       <c r="I2">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="J2">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N2">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O2">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P2">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q2">
-        <v>72.75922204031988</v>
+        <v>11.29683565603911</v>
       </c>
       <c r="R2">
-        <v>654.832998362879</v>
+        <v>101.671520904352</v>
       </c>
       <c r="S2">
-        <v>0.05409102785485313</v>
+        <v>0.009511868610616094</v>
       </c>
       <c r="T2">
-        <v>0.05409102785485313</v>
+        <v>0.009511868610616094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>9.163165666666666</v>
+        <v>0.7170026666666667</v>
       </c>
       <c r="H3">
-        <v>27.489497</v>
+        <v>2.151008</v>
       </c>
       <c r="I3">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="J3">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>80.861542</v>
       </c>
       <c r="O3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q3">
-        <v>246.9825684693749</v>
+        <v>19.32598041492622</v>
       </c>
       <c r="R3">
-        <v>2222.843116224374</v>
+        <v>173.933823734336</v>
       </c>
       <c r="S3">
-        <v>0.1836130268591502</v>
+        <v>0.01627236086946592</v>
       </c>
       <c r="T3">
-        <v>0.1836130268591502</v>
+        <v>0.01627236086946591</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>9.163165666666666</v>
+        <v>0.7170026666666667</v>
       </c>
       <c r="H4">
-        <v>27.489497</v>
+        <v>2.151008</v>
       </c>
       <c r="I4">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="J4">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>18.637829</v>
       </c>
       <c r="O4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q4">
-        <v>56.92717159800144</v>
+        <v>4.454457697959111</v>
       </c>
       <c r="R4">
-        <v>512.3445443820131</v>
+        <v>40.090119281632</v>
       </c>
       <c r="S4">
-        <v>0.04232108505639488</v>
+        <v>0.003750626958256584</v>
       </c>
       <c r="T4">
-        <v>0.04232108505639489</v>
+        <v>0.003750626958256584</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>36.201142</v>
       </c>
       <c r="I5">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="J5">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N5">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O5">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P5">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q5">
-        <v>95.8172108020438</v>
+        <v>190.1240496246109</v>
       </c>
       <c r="R5">
-        <v>862.3548972183942</v>
+        <v>1711.116446621498</v>
       </c>
       <c r="S5">
-        <v>0.07123291416716333</v>
+        <v>0.1600833219859042</v>
       </c>
       <c r="T5">
-        <v>0.07123291416716333</v>
+        <v>0.1600833219859042</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>36.201142</v>
       </c>
       <c r="I6">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="J6">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>80.861542</v>
       </c>
       <c r="O6">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P6">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q6">
         <v>325.2533515867738</v>
       </c>
       <c r="R6">
-        <v>2927.280164280965</v>
+        <v>2927.280164280964</v>
       </c>
       <c r="S6">
-        <v>0.2418014872508548</v>
+        <v>0.2738613926637088</v>
       </c>
       <c r="T6">
-        <v>0.2418014872508548</v>
+        <v>0.2738613926637088</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>36.201142</v>
       </c>
       <c r="I7">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="J7">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>18.637829</v>
       </c>
       <c r="O7">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P7">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q7">
-        <v>74.9678549111909</v>
+        <v>74.96785491119088</v>
       </c>
       <c r="R7">
-        <v>674.7106942007181</v>
+        <v>674.710694200718</v>
       </c>
       <c r="S7">
-        <v>0.05573298084430681</v>
+        <v>0.06312248913294356</v>
       </c>
       <c r="T7">
-        <v>0.05573298084430683</v>
+        <v>0.06312248913294355</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>34.477322</v>
       </c>
       <c r="I8">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="J8">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N8">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O8">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P8">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q8">
-        <v>91.2546026852949</v>
+        <v>181.0707540345465</v>
       </c>
       <c r="R8">
-        <v>821.2914241676541</v>
+        <v>1629.636786310918</v>
       </c>
       <c r="S8">
-        <v>0.06784095702670517</v>
+        <v>0.1524605008023697</v>
       </c>
       <c r="T8">
-        <v>0.06784095702670517</v>
+        <v>0.1524605008023697</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>34.477322</v>
       </c>
       <c r="I9">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="J9">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>80.861542</v>
       </c>
       <c r="O9">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P9">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q9">
         <v>309.7654912167249</v>
@@ -1004,10 +1004,10 @@
         <v>2787.889420950524</v>
       </c>
       <c r="S9">
-        <v>0.2302874239720563</v>
+        <v>0.2608207061046618</v>
       </c>
       <c r="T9">
-        <v>0.2302874239720563</v>
+        <v>0.2608207061046617</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>34.477322</v>
       </c>
       <c r="I10">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="J10">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>18.637829</v>
       </c>
       <c r="O10">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P10">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q10">
         <v>71.39804797932645</v>
@@ -1066,10 +1066,10 @@
         <v>642.582431813938</v>
       </c>
       <c r="S10">
-        <v>0.05307909696851546</v>
+        <v>0.06011673287207338</v>
       </c>
       <c r="T10">
-        <v>0.05307909696851547</v>
+        <v>0.06011673287207337</v>
       </c>
     </row>
   </sheetData>
